--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
@@ -1577,13 +1577,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="narcotics-practitioner"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenseCertificate_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalLicenseCertificate_VS</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.</t>
@@ -1615,7 +1615,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="medical-registration"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1985,7 +1985,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
@@ -466,23 +466,22 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent 【詳細参照】</t>
+    <t>An identifier for the person as this agent Practitionerリソースに対する識別子【詳細参照】</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
-Practitioner.identifier.systemには、
-医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
-歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号を使用する。  
-医師IDの発行者である医療機関を識別する「医療機関コード」については、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。医療機関識別OID番号については、医療機関コード10桁の先頭に１をつけた11桁とする。
-医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
-例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」
-なお、rn:oid:1.2.392.100495.20.3.41　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。
-地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。
-医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/職員ID」などの識別コードを入れること。
+    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。  
+Practitioner.identifier.systemは以下の割り当てる。
+- 医師の場合 : urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
+- 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
+医療機関識別OID番号は患者IDの発行者である施設を識別するものであり、医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」  
+なお、rn:oid:1.2.392.100495.20.3.41 の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。  
+地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。  
+医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/PractitionerのSystem発行キー」などの識別コードを入れること。  
 例：http://www.abd-hospital.co.jp/practitioner-system</t>
   </si>
   <si>
@@ -1434,7 +1433,7 @@
   </si>
   <si>
     <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]。  
-都道府県毎のOIDを以下に示す。
+都道府県毎のOIDを以下に示す。  
 - urn:oid:1.2.392.100495.20.3.32.101(北海道)
 - urn:oid:1.2.392.100495.20.3.32.102(青森県)
 - urn:oid:1.2.392.100495.20.3.32.103(岩手県)

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -260,10 +260,6 @@
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.
 医療の提供に直接または間接的に関与する者をいう。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -2217,16 +2213,16 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>77</v>
@@ -2234,7 +2230,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2245,28 +2241,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2316,13 +2312,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2345,7 +2341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2356,25 +2352,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2425,19 +2421,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2454,7 +2450,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2465,28 +2461,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2536,19 +2532,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2565,7 +2561,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2576,7 +2572,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2588,16 +2584,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2623,43 +2619,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2676,18 +2672,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2699,16 +2695,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2758,25 +2754,25 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2787,11 +2783,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2810,16 +2806,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2869,7 +2865,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2887,7 +2883,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2898,11 +2894,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2921,16 +2917,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2980,7 +2976,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2992,13 +2988,13 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -3009,11 +3005,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3026,25 +3022,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3093,7 +3089,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3105,13 +3101,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3122,7 +3118,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3142,22 +3138,22 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -3206,7 +3202,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3218,24 +3214,24 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3246,111 +3242,111 @@
         <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P12" t="s" s="2">
+      <c r="Q12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3373,19 +3369,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3434,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3443,19 +3439,19 @@
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AI13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3463,7 +3459,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3483,22 +3479,22 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3547,7 +3543,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3559,16 +3555,16 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3576,7 +3572,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3587,7 +3583,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3599,13 +3595,13 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3656,25 +3652,25 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3685,11 +3681,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3708,16 +3704,16 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3755,19 +3751,19 @@
         <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3779,13 +3775,13 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3796,7 +3792,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3807,25 +3803,25 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3852,52 +3848,52 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH17" t="s" s="2">
+      <c r="AI17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AI17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3905,7 +3901,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3916,31 +3912,31 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3989,28 +3985,28 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4018,7 +4014,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4029,31 +4025,31 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4078,52 +4074,52 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4131,7 +4127,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4142,28 +4138,28 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4213,25 +4209,25 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4242,7 +4238,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4253,28 +4249,28 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4324,28 +4320,28 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4353,7 +4349,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4373,22 +4369,22 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4437,7 +4433,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4449,16 +4445,16 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4466,7 +4462,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4477,7 +4473,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4489,13 +4485,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4546,25 +4542,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4575,11 +4571,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4598,16 +4594,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4645,19 +4641,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AB24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AB24" t="s" s="2">
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
+      <c r="AE24" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4669,13 +4665,13 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4686,7 +4682,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4697,31 +4693,31 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4734,64 +4730,64 @@
         <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4799,7 +4795,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4810,28 +4806,28 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4845,61 +4841,61 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4910,7 +4906,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4921,31 +4917,31 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4958,61 +4954,61 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5023,7 +5019,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5043,16 +5039,16 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5067,43 +5063,43 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5115,16 +5111,16 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5132,36 +5128,36 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5176,64 +5172,64 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5241,39 +5237,39 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5287,61 +5283,61 @@
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="T30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5352,36 +5348,36 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5432,28 +5428,28 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5461,36 +5457,36 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5505,64 +5501,64 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="T32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5570,7 +5566,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5581,28 +5577,28 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5652,28 +5648,28 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5681,7 +5677,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5692,31 +5688,31 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5729,64 +5725,64 @@
         <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AK34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5794,7 +5790,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5805,29 +5801,29 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5852,52 +5848,52 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5905,7 +5901,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5916,29 +5912,29 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5987,28 +5983,28 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6016,7 +6012,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6039,19 +6035,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6100,7 +6096,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6112,16 +6108,16 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6129,7 +6125,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6152,16 +6148,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6199,17 +6195,17 @@
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6221,16 +6217,16 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6238,7 +6234,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6249,7 +6245,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6261,13 +6257,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6318,25 +6314,25 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6347,11 +6343,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6370,16 +6366,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6429,7 +6425,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6441,13 +6437,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6458,11 +6454,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6475,25 +6471,25 @@
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6542,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6554,13 +6550,13 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6571,7 +6567,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6594,17 +6590,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6653,7 +6649,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6665,13 +6661,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6682,7 +6678,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6690,10 +6686,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6705,16 +6701,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6740,52 +6736,52 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6793,7 +6789,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6804,7 +6800,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6816,19 +6812,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6877,28 +6873,28 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6906,7 +6902,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6917,7 +6913,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6929,16 +6925,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6988,25 +6984,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7017,10 +7013,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>77</v>
@@ -7030,25 +7026,25 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7099,7 +7095,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7111,16 +7107,16 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7128,7 +7124,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7139,7 +7135,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7151,13 +7147,13 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7208,25 +7204,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7237,11 +7233,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7260,16 +7256,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7319,7 +7315,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7331,13 +7327,13 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7348,11 +7344,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7365,25 +7361,25 @@
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7432,7 +7428,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7444,13 +7440,13 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7461,7 +7457,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7484,17 +7480,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7543,7 +7539,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7555,13 +7551,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7572,7 +7568,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7583,7 +7579,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7595,13 +7591,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7652,25 +7648,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7681,11 +7677,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7704,16 +7700,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L52" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7751,19 +7747,19 @@
         <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AB52" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AB52" t="s" s="2">
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
+      <c r="AE52" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7775,13 +7771,13 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7788,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7803,31 +7799,31 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7852,49 +7848,49 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7905,7 +7901,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7916,31 +7912,31 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7965,49 +7961,49 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="X54" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="X54" t="s" s="2">
+      <c r="Y54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8018,7 +8014,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8029,31 +8025,31 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8066,64 +8062,64 @@
         <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8131,7 +8127,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8142,28 +8138,28 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8177,64 +8173,64 @@
         <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AL56" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8242,7 +8238,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8253,25 +8249,25 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8322,28 +8318,28 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AK57" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="AL57" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8351,7 +8347,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8362,28 +8358,28 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J58" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8433,28 +8429,28 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8462,7 +8458,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8470,10 +8466,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8485,13 +8481,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K59" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="L59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8503,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -8518,11 +8514,11 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8540,28 +8536,28 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8569,7 +8565,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8580,7 +8576,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8592,17 +8588,17 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8651,28 +8647,28 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8680,7 +8676,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8691,7 +8687,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8703,13 +8699,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8760,25 +8756,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8789,10 +8785,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -8802,7 +8798,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8814,13 +8810,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8871,7 +8867,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8883,16 +8879,16 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8900,7 +8896,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8911,7 +8907,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8923,13 +8919,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8980,25 +8976,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9009,11 +9005,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9032,16 +9028,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K64" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L64" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9091,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9103,13 +9099,13 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9120,11 +9116,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9137,25 +9133,25 @@
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9204,7 +9200,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9216,13 +9212,13 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9233,7 +9229,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9256,17 +9252,17 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9315,7 +9311,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9327,13 +9323,13 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9344,7 +9340,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9355,7 +9351,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9367,13 +9363,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9424,25 +9420,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9453,11 +9449,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9476,16 +9472,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L68" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9523,19 +9519,19 @@
         <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AB68" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AB68" t="s" s="2">
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
+      <c r="AE68" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9547,13 +9543,13 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9564,7 +9560,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9575,31 +9571,31 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9624,49 +9620,49 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9677,7 +9673,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9688,31 +9684,31 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9737,49 +9733,49 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="X70" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="X70" t="s" s="2">
+      <c r="Y70" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AK70" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9786,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9801,101 +9797,101 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="AK71" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9903,7 +9899,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9914,28 +9910,28 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9949,64 +9945,64 @@
         <v>77</v>
       </c>
       <c r="S72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
+      <c r="AK72" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AK72" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AL72" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10014,7 +10010,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10025,25 +10021,25 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10094,28 +10090,28 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="AL73" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10123,7 +10119,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10134,28 +10130,28 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10205,28 +10201,28 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
+      <c r="AK74" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10234,7 +10230,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10242,10 +10238,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10257,13 +10253,13 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="L75" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10275,7 +10271,7 @@
         <v>77</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>77</v>
@@ -10290,11 +10286,11 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10312,28 +10308,28 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10341,7 +10337,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10352,7 +10348,7 @@
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10364,17 +10360,17 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10423,28 +10419,28 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10448,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10463,7 +10459,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10475,13 +10471,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10532,25 +10528,25 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10561,7 +10557,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10584,19 +10580,19 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10621,14 +10617,14 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X78" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X78" t="s" s="2">
+      <c r="Y78" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10645,7 +10641,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10657,16 +10653,16 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
